--- a/biology/Botanique/Begonia_coccinea/Begonia_coccinea.xlsx
+++ b/biology/Botanique/Begonia_coccinea/Begonia_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia coccinea est une espèce de plantes de la famille des Begoniaceae. Ce bégonia bambou est originaire du Brésil.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble
@@ -547,9 +561,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Brésil.
 </t>
         </is>
       </c>
@@ -578,12 +594,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Begonia coccinea fait partie de la section Pritzelia du genre Begonia, famille des Begoniaceae[3].
-L'espèce a été décrite en 1843 par William Jackson Hooker (1785-1865). L'épithète spécifique coccinea signifie « écarlate »[4].
-Liste des variétés
-Selon Tropicos                                           (6 février 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia coccinea fait partie de la section Pritzelia du genre Begonia, famille des Begoniaceae.
+L'espèce a été décrite en 1843 par William Jackson Hooker (1785-1865). L'épithète spécifique coccinea signifie « écarlate ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_coccinea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_coccinea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia coccinea var. a. de liming Regel
 variété Begonia coccinea var. comte alfred de limering Regel</t>
         </is>
